--- a/docs/ru/cases/performance-testing/assets/network_testing.xlsx
+++ b/docs/ru/cases/performance-testing/assets/network_testing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="21000" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Interaval</t>
+    <t>Interval</t>
   </si>
   <si>
     <t>Transfer (Mbytes/Gbytes)</t>
@@ -1569,7 +1569,7 @@
   <dimension ref="A1:I997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A27"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
